--- a/data/trans_bre/P4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,16</t>
+          <t>15,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>13,41</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,84</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>22,03%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>-5,82%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>71,28%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58,83%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 16,21</t>
+          <t>-6,82; 15,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 10,66</t>
+          <t>-11,58; 10,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 25,48</t>
+          <t>2,7; 26,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 16,89</t>
+          <t>-6,58; 18,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 20,33</t>
+          <t>-0,06; 29,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 92,75</t>
+          <t>-14,9; 20,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 63,57</t>
+          <t>-9,68; 25,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 167,96</t>
+          <t>-23,54; 87,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 102,14</t>
+          <t>-41,31; 61,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 59,77</t>
+          <t>9,89; 187,37</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,9; 109,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 214,35</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-29,53; 64,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-17,86; 71,96</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,94%</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-11,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,77%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-12,71%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50,75%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 8,05</t>
+          <t>-17,5; 7,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 14,98</t>
+          <t>-15,33; 13,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 10,12</t>
+          <t>-13,37; 11,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 6,55</t>
+          <t>-18,73; 6,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 14,59</t>
+          <t>-1,77; 22,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,93; 30,52</t>
+          <t>-12,9; 15,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 59,01</t>
+          <t>-10,78; 19,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 38,72</t>
+          <t>-39,24; 27,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,95; 24,1</t>
+          <t>-34,33; 53,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 49,08</t>
+          <t>-31,03; 43,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-39,81; 20,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 186,99</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-26,62; 53,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-20,82; 61,28</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,6</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,59%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,9%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>4,61%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 9,86</t>
+          <t>-6,3; 10,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 9,26</t>
+          <t>-8,41; 9,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 11,52</t>
+          <t>-2,69; 10,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 9,55</t>
+          <t>-5,76; 8,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 10,94</t>
+          <t>-4,95; 10,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 58,23</t>
+          <t>-7,74; 10,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 56,56</t>
+          <t>-9,57; 12,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 75,29</t>
+          <t>-23,25; 58,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 57,77</t>
+          <t>-31,0; 58,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 36,99</t>
+          <t>-12,91; 67,18</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-22,67; 52,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-20,02; 63,76</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-19,92; 36,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; 34,1</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,6%</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,51%</t>
+          <t>-16,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-9,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-9,84%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>28,93%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 4,65</t>
+          <t>-8,48; 5,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 3,01</t>
+          <t>-11,0; 2,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,92</t>
+          <t>-4,06; 8,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 4,29</t>
+          <t>-9,77; 4,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 17,7</t>
+          <t>-11,5; 5,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 24,77</t>
+          <t>-3,37; 17,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,8; 15,45</t>
+          <t>0,86; 20,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 42,91</t>
+          <t>-31,71; 27,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 21,14</t>
+          <t>-39,57; 13,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 51,62</t>
+          <t>-16,66; 50,92</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-34,54; 22,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-39,04; 27,99</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 51,55</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 63,42</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1,6</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>34,76%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>21,24%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>46,38%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>40,6%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32,97%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>4,01%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-2,39%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 14,63</t>
+          <t>-1,96; 13,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 13,15</t>
+          <t>-5,86; 12,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 14,7</t>
+          <t>-1,6; 14,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 13,86</t>
+          <t>-2,94; 13,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 12,83</t>
+          <t>-11,36; 7,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 99,64</t>
+          <t>-8,78; 12,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 80,87</t>
+          <t>-10,96; 10,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 108,64</t>
+          <t>-8,79; 94,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 99,49</t>
+          <t>-23,65; 80,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 39,99</t>
+          <t>-10,38; 109,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 100,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-43,11; 41,06</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-19,64; 36,02</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-25,11; 32,0</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1468,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1256,32 +1488,52 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,99</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-8,0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,59</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>54,66%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>23,42%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>16,07%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>68,03%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-19,17%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-17,77%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 17,69</t>
+          <t>2,35; 18,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 13,78</t>
+          <t>-3,66; 13,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 11,0</t>
+          <t>-6,15; 9,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 14,67</t>
+          <t>-2,72; 13,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 5,83</t>
+          <t>-2,0; 20,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,56; 132,42</t>
+          <t>-22,09; 4,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 95,04</t>
+          <t>-19,72; 5,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 88,48</t>
+          <t>10,56; 128,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 116,03</t>
+          <t>-16,98; 97,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 17,04</t>
+          <t>-29,32; 79,21</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-15,3; 108,27</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-12,41; 223,7</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-45,74; 13,52</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-41,25; 15,06</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,66</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,04</t>
+          <t>-1,27; 5,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,57</t>
+          <t>-3,6; 4,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,04</t>
+          <t>-0,01; 7,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,06</t>
+          <t>-2,37; 5,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 6,18</t>
+          <t>-0,5; 7,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 29,18</t>
+          <t>-4,33; 6,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 21,34</t>
+          <t>-2,72; 6,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 41,17</t>
+          <t>-5,11; 28,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 23,89</t>
+          <t>-13,73; 22,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 16,91</t>
+          <t>-0,1; 39,38</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 25,28</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 43,18</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; 15,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 18,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
